--- a/src/main/resources/kegelmeisterschaft/service/importer/2015/results/Los Brennos.xlsx
+++ b/src/main/resources/kegelmeisterschaft/service/importer/2015/results/Los Brennos.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="28">
   <si>
     <t>firstName</t>
   </si>
@@ -52,319 +52,49 @@
     <t>-</t>
   </si>
   <si>
-    <t>Manuel</t>
-  </si>
-  <si>
-    <t>Klute</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Manuel</t>
-  </si>
-  <si>
-    <t>Klute</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Manuel</t>
-  </si>
-  <si>
-    <t>Klute</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Sebastian</t>
   </si>
   <si>
     <t>Hunecke</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Sebastian</t>
-  </si>
-  <si>
-    <t>Hunecke</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Sebastian</t>
-  </si>
-  <si>
-    <t>Hunecke</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Sebastian</t>
-  </si>
-  <si>
-    <t>Hunecke</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Denis</t>
   </si>
   <si>
     <t>Lage</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Denis</t>
-  </si>
-  <si>
-    <t>Lage</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Denis</t>
-  </si>
-  <si>
-    <t>Lage</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Denis</t>
-  </si>
-  <si>
-    <t>Lage</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Stefan</t>
   </si>
   <si>
     <t>Becker</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Stefan</t>
-  </si>
-  <si>
-    <t>Becker</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Stefan</t>
-  </si>
-  <si>
-    <t>Becker</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Stefan</t>
-  </si>
-  <si>
-    <t>Becker</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Chris</t>
   </si>
   <si>
     <t>Kalinowski</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Chris</t>
-  </si>
-  <si>
-    <t>Kalinowski</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Chris</t>
-  </si>
-  <si>
-    <t>Kalinowski</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Chris</t>
-  </si>
-  <si>
-    <t>Kalinowski</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Sebastian</t>
-  </si>
-  <si>
     <t>Grossert</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Sebastian</t>
-  </si>
-  <si>
-    <t>Grossert</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Sebastian</t>
-  </si>
-  <si>
-    <t>Grossert</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Sebastian</t>
-  </si>
-  <si>
-    <t>Grossert</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Alexander</t>
   </si>
   <si>
     <t>Müller</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Alexander</t>
-  </si>
-  <si>
-    <t>Müller</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Alexander</t>
-  </si>
-  <si>
-    <t>Müller</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Alexander</t>
-  </si>
-  <si>
-    <t>Müller</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Haris</t>
   </si>
   <si>
     <t>Babic</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Haris</t>
-  </si>
-  <si>
-    <t>Babic</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Haris</t>
-  </si>
-  <si>
-    <t>Babic</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Haris</t>
-  </si>
-  <si>
-    <t>Babic</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Samy</t>
   </si>
   <si>
     <t>Slouma</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Samy</t>
-  </si>
-  <si>
-    <t>Slouma</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Samy</t>
-  </si>
-  <si>
-    <t>Slouma</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Samy</t>
-  </si>
-  <si>
-    <t>Slouma</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
 </sst>
 </file>
@@ -512,16 +242,16 @@
     </row>
     <row r="3">
       <c t="s" s="2" r="A3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c t="s" s="2" r="B3">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c s="3" r="C3">
         <v>2.0</v>
       </c>
       <c t="s" s="1" r="D3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c s="3" r="E3">
         <v>0.0</v>
@@ -548,16 +278,16 @@
     </row>
     <row r="4">
       <c t="s" s="2" r="A4">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c t="s" s="2" r="B4">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c s="3" r="C4">
         <v>3.0</v>
       </c>
       <c t="s" s="1" r="D4">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c s="3" r="E4">
         <v>0.0</v>
@@ -584,16 +314,16 @@
     </row>
     <row r="5">
       <c t="s" s="2" r="A5">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c t="s" s="2" r="B5">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c s="3" r="C5">
         <v>4.0</v>
       </c>
       <c t="s" s="1" r="D5">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c s="3" r="E5">
         <v>0.0</v>
@@ -620,16 +350,16 @@
     </row>
     <row r="6">
       <c t="s" s="2" r="A6">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c t="s" s="2" r="B6">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c s="3" r="C6">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="D6">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c s="3" r="E6">
         <v>0.0</v>
@@ -656,16 +386,16 @@
     </row>
     <row r="7">
       <c t="s" s="2" r="A7">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c t="s" s="2" r="B7">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c s="3" r="C7">
         <v>2.0</v>
       </c>
       <c t="s" s="1" r="D7">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c s="3" r="E7">
         <v>0.0</v>
@@ -692,16 +422,16 @@
     </row>
     <row r="8">
       <c t="s" s="2" r="A8">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c t="s" s="2" r="B8">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c s="3" r="C8">
         <v>3.0</v>
       </c>
       <c t="s" s="1" r="D8">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c s="3" r="E8">
         <v>0.0</v>
@@ -728,16 +458,16 @@
     </row>
     <row r="9">
       <c t="s" s="2" r="A9">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c t="s" s="2" r="B9">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c s="3" r="C9">
         <v>4.0</v>
       </c>
       <c t="s" s="1" r="D9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c s="3" r="E9">
         <v>0.0</v>
@@ -764,16 +494,16 @@
     </row>
     <row r="10">
       <c t="s" s="2" r="A10">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c t="s" s="2" r="B10">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c s="3" r="C10">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="D10">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c s="3" r="E10">
         <v>0.0</v>
@@ -800,16 +530,16 @@
     </row>
     <row r="11">
       <c t="s" s="2" r="A11">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c t="s" s="2" r="B11">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c s="3" r="C11">
         <v>2.0</v>
       </c>
       <c t="s" s="1" r="D11">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c s="3" r="E11">
         <v>0.0</v>
@@ -836,16 +566,16 @@
     </row>
     <row r="12">
       <c t="s" s="2" r="A12">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c t="s" s="2" r="B12">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c s="3" r="C12">
         <v>3.0</v>
       </c>
       <c t="s" s="1" r="D12">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c s="3" r="E12">
         <v>0.0</v>
@@ -872,16 +602,16 @@
     </row>
     <row r="13">
       <c t="s" s="2" r="A13">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c t="s" s="2" r="B13">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c s="3" r="C13">
         <v>4.0</v>
       </c>
       <c t="s" s="1" r="D13">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c s="3" r="E13">
         <v>0.0</v>
@@ -908,16 +638,16 @@
     </row>
     <row r="14">
       <c t="s" s="2" r="A14">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c t="s" s="2" r="B14">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c s="3" r="C14">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="D14">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c s="3" r="E14">
         <v>0.0</v>
@@ -944,16 +674,16 @@
     </row>
     <row r="15">
       <c t="s" s="2" r="A15">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c t="s" s="2" r="B15">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c s="3" r="C15">
         <v>2.0</v>
       </c>
       <c t="s" s="1" r="D15">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c s="3" r="E15">
         <v>0.0</v>
@@ -980,16 +710,16 @@
     </row>
     <row r="16">
       <c t="s" s="2" r="A16">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c t="s" s="2" r="B16">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c s="3" r="C16">
         <v>3.0</v>
       </c>
       <c t="s" s="1" r="D16">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c s="3" r="E16">
         <v>0.0</v>
@@ -1016,16 +746,16 @@
     </row>
     <row r="17">
       <c t="s" s="2" r="A17">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c t="s" s="2" r="B17">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c s="3" r="C17">
         <v>4.0</v>
       </c>
       <c t="s" s="1" r="D17">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c s="3" r="E17">
         <v>0.0</v>
@@ -1052,16 +782,16 @@
     </row>
     <row r="18">
       <c t="s" s="2" r="A18">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c t="s" s="2" r="B18">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c s="3" r="C18">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="D18">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c s="3" r="E18">
         <v>0.0</v>
@@ -1088,16 +818,16 @@
     </row>
     <row r="19">
       <c t="s" s="2" r="A19">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c t="s" s="2" r="B19">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c s="3" r="C19">
         <v>2.0</v>
       </c>
       <c t="s" s="1" r="D19">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c s="3" r="E19">
         <v>0.0</v>
@@ -1124,16 +854,16 @@
     </row>
     <row r="20">
       <c t="s" s="2" r="A20">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c t="s" s="2" r="B20">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c s="3" r="C20">
         <v>3.0</v>
       </c>
       <c t="s" s="1" r="D20">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c s="3" r="E20">
         <v>0.0</v>
@@ -1160,16 +890,16 @@
     </row>
     <row r="21">
       <c t="s" s="2" r="A21">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c t="s" s="2" r="B21">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c s="3" r="C21">
         <v>4.0</v>
       </c>
       <c t="s" s="1" r="D21">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c s="3" r="E21">
         <v>0.0</v>
@@ -1196,16 +926,16 @@
     </row>
     <row r="22">
       <c t="s" s="2" r="A22">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c t="s" s="2" r="B22">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c s="3" r="C22">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="D22">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c s="3" r="E22">
         <v>0.0</v>
@@ -1232,16 +962,16 @@
     </row>
     <row r="23">
       <c t="s" s="2" r="A23">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c t="s" s="2" r="B23">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c s="3" r="C23">
         <v>2.0</v>
       </c>
       <c t="s" s="1" r="D23">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c s="3" r="E23">
         <v>0.0</v>
@@ -1268,16 +998,16 @@
     </row>
     <row r="24">
       <c t="s" s="2" r="A24">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c t="s" s="2" r="B24">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c s="3" r="C24">
         <v>3.0</v>
       </c>
       <c t="s" s="1" r="D24">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c s="3" r="E24">
         <v>0.0</v>
@@ -1304,16 +1034,16 @@
     </row>
     <row r="25">
       <c t="s" s="2" r="A25">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c t="s" s="2" r="B25">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c s="3" r="C25">
         <v>4.0</v>
       </c>
       <c t="s" s="1" r="D25">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c s="3" r="E25">
         <v>0.0</v>
@@ -1340,16 +1070,16 @@
     </row>
     <row r="26">
       <c t="s" s="2" r="A26">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c t="s" s="2" r="B26">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c s="3" r="C26">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="D26">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c s="3" r="E26">
         <v>0.0</v>
@@ -1376,16 +1106,16 @@
     </row>
     <row r="27">
       <c t="s" s="2" r="A27">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c t="s" s="2" r="B27">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c s="3" r="C27">
         <v>2.0</v>
       </c>
       <c t="s" s="1" r="D27">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c s="3" r="E27">
         <v>0.0</v>
@@ -1412,16 +1142,16 @@
     </row>
     <row r="28">
       <c t="s" s="2" r="A28">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c t="s" s="2" r="B28">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c s="3" r="C28">
         <v>3.0</v>
       </c>
       <c t="s" s="1" r="D28">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c s="3" r="E28">
         <v>0.0</v>
@@ -1448,16 +1178,16 @@
     </row>
     <row r="29">
       <c t="s" s="2" r="A29">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c t="s" s="2" r="B29">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c s="3" r="C29">
         <v>4.0</v>
       </c>
       <c t="s" s="1" r="D29">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c s="3" r="E29">
         <v>0.0</v>
@@ -1484,16 +1214,16 @@
     </row>
     <row r="30">
       <c t="s" s="2" r="A30">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c t="s" s="2" r="B30">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c s="3" r="C30">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="D30">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c s="3" r="E30">
         <v>0.0</v>
@@ -1520,16 +1250,16 @@
     </row>
     <row r="31">
       <c t="s" s="2" r="A31">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c t="s" s="2" r="B31">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c s="3" r="C31">
         <v>2.0</v>
       </c>
       <c t="s" s="1" r="D31">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c s="3" r="E31">
         <v>0.0</v>
@@ -1556,16 +1286,16 @@
     </row>
     <row r="32">
       <c t="s" s="2" r="A32">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c t="s" s="2" r="B32">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c s="3" r="C32">
         <v>3.0</v>
       </c>
       <c t="s" s="1" r="D32">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c s="3" r="E32">
         <v>0.0</v>
@@ -1592,16 +1322,16 @@
     </row>
     <row r="33">
       <c t="s" s="2" r="A33">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c t="s" s="2" r="B33">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c s="3" r="C33">
         <v>4.0</v>
       </c>
       <c t="s" s="1" r="D33">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c s="3" r="E33">
         <v>0.0</v>
@@ -1628,16 +1358,16 @@
     </row>
     <row r="34">
       <c t="s" s="2" r="A34">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c t="s" s="2" r="B34">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c s="3" r="C34">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="D34">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c s="3" r="E34">
         <v>0.0</v>
@@ -1664,16 +1394,16 @@
     </row>
     <row r="35">
       <c t="s" s="2" r="A35">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c t="s" s="2" r="B35">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c s="3" r="C35">
         <v>2.0</v>
       </c>
       <c t="s" s="1" r="D35">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c s="3" r="E35">
         <v>0.0</v>
@@ -1700,16 +1430,16 @@
     </row>
     <row r="36">
       <c t="s" s="2" r="A36">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c t="s" s="2" r="B36">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c s="3" r="C36">
         <v>3.0</v>
       </c>
       <c t="s" s="1" r="D36">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c s="3" r="E36">
         <v>0.0</v>
@@ -1736,16 +1466,16 @@
     </row>
     <row r="37">
       <c t="s" s="2" r="A37">
-        <v>115</v>
+        <v>26</v>
       </c>
       <c t="s" s="2" r="B37">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c s="3" r="C37">
         <v>4.0</v>
       </c>
       <c t="s" s="1" r="D37">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c s="3" r="E37">
         <v>0.0</v>
